--- a/Result/check1/2025-04-24.xlsx
+++ b/Result/check1/2025-04-24.xlsx
@@ -798,7 +798,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>321277891.0</t>
+          <t>527840298.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>31021670.0</t>
+          <t>23764773.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>495281.0</t>
+          <t>398330.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>110970.0</t>
+          <t>699649.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>823428.0</t>
+          <t>1179222.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2962.0</t>
+          <t>922.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-36692331.0</t>
+          <t>146462706.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>94173.0</t>
+          <t>272227.0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>7075497598.0</t>
+          <t>5356391047.0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-229097568.0</t>
+          <t>-308006549.0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>317349.0</t>
+          <t>-130354.0</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>141070966.0</t>
+          <t>-360324934.0</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>21614292.0</t>
+          <t>53594699.0</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>93847096.0</t>
+          <t>82479623.0</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>4116908.0</t>
+          <t>4637285.0</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>162536466.0</t>
+          <t>1378302583.0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>556079217.0</t>
+          <t>623788439.0</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>-90600.0</t>
+          <t>-106394.0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>850910705.0</t>
+          <t>983641427.0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>7919448168.0</t>
+          <t>6553200507.0</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>818994445.0</t>
+          <t>2658053401.0</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>354061.0</t>
+          <t>150724.0</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>272143041.0</t>
+          <t>140491274.0</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>113359634.0</t>
+          <t>159499267.0</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>114812.0</t>
+          <t>158947.0</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>256995279.0</t>
+          <t>4043794.0</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>31997.0</t>
+          <t>121665.0</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>428942.0</t>
+          <t>467390.0</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>52291916.0</t>
+          <t>196822330.0</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>-160431.0</t>
+          <t>260666.0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>51244388.0</t>
+          <t>75802399.0</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>45994.0</t>
+          <t>106710.0</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>73006.0</t>
+          <t>177307.0</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>302092.0</t>
+          <t>305529.0</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>19804.0</t>
+          <t>29099.0</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>-1341680575.0</t>
+          <t>731986684.0</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>1378673.0</t>
+          <t>1961546.0</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>8344.0</t>
+          <t>42740.0</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>932458.0</t>
+          <t>-287895.0</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>37466.0</t>
+          <t>41972.0</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>302295702.0</t>
+          <t>277852229.0</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>168743250.0</t>
+          <t>183620363.0</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>-1562375504.0</t>
+          <t>-1621556984.0</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>618817.0</t>
+          <t>109061.0</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>182091444.0</t>
+          <t>713039234.0</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>492163702.0</t>
+          <t>520352499.0</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>244667.0</t>
+          <t>249328.0</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>-599368510.0</t>
+          <t>-1250414672.0</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>642974.0</t>
+          <t>307815.0</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>2532263.0</t>
+          <t>6757629.0</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>409324545.0</t>
+          <t>685551134.0</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>144545.0</t>
+          <t>423131.0</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>1340918.0</t>
+          <t>1537582.0</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>-405551724.0</t>
+          <t>-308961871.0</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>32320.0</t>
+          <t>85067.0</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>4185.0</t>
+          <t>5898.0</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>67521980.0</t>
+          <t>531519023.0</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>111849.0</t>
+          <t>610701.0</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -13964,7 +13964,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>4324764.0</t>
+          <t>5610556.0</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>1068326470.0</t>
+          <t>2616571237.0</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>274578.0</t>
+          <t>541429.0</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>85112.0</t>
+          <t>205738.0</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>501631233.0</t>
+          <t>273036145.0</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>2043975.0</t>
+          <t>1446289.0</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -15326,7 +15326,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>-7184.0</t>
+          <t>1711.0</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>206004473.0</t>
+          <t>739426468.0</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>557174.0</t>
+          <t>1025487.0</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>76927293.0</t>
+          <t>30392591.0</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -16234,7 +16234,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>33802926.0</t>
+          <t>-7719608.0</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>7754878.0</t>
+          <t>-32307463.0</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>18407.0</t>
+          <t>21188.0</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>1842.0</t>
+          <t>17608.0</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
@@ -17142,7 +17142,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>584043.0</t>
+          <t>931875.0</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
@@ -17369,7 +17369,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>-526282.0</t>
+          <t>-1243758.0</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>12529.0</t>
+          <t>80531.0</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>91639.0</t>
+          <t>264975.0</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>2868377.0</t>
+          <t>-1843483.0</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>1822.0</t>
+          <t>6671.0</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>190114.0</t>
+          <t>296495.0</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
@@ -18731,7 +18731,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>775635343.0</t>
+          <t>1372745725.0</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
@@ -18958,7 +18958,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>264903665.0</t>
+          <t>330470937.0</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
@@ -19185,7 +19185,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>-1588619435.0</t>
+          <t>-218008995.0</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>-89234.0</t>
+          <t>317849.0</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>209889.0</t>
+          <t>44661.0</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
@@ -19866,7 +19866,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>1327400.0</t>
+          <t>1780775.0</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>3177062.0</t>
+          <t>-1515169.0</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
@@ -20320,7 +20320,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>7054014.0</t>
+          <t>-3686031.0</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
@@ -20547,7 +20547,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>-339333719.0</t>
+          <t>-127940479.0</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
@@ -20774,7 +20774,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>160792926.0</t>
+          <t>142627613.0</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>659289171.0</t>
+          <t>2089357173.0</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>-8295.0</t>
+          <t>144695.0</t>
         </is>
       </c>
       <c r="AC92" t="inlineStr">
@@ -21455,7 +21455,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>-528209299.0</t>
+          <t>-531750689.0</t>
         </is>
       </c>
       <c r="AC93" t="inlineStr">
@@ -21682,7 +21682,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>2200262.0</t>
+          <t>2459362.0</t>
         </is>
       </c>
       <c r="AC94" t="inlineStr">
@@ -21909,7 +21909,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>-948171666.0</t>
+          <t>646106400.0</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>83753339.0</t>
+          <t>200417980.0</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr">
@@ -22363,7 +22363,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>647955526.0</t>
+          <t>1196152617.0</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>635545565.0</t>
+          <t>767028099.0</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
@@ -22817,7 +22817,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>238257272.0</t>
+          <t>262527785.0</t>
         </is>
       </c>
       <c r="AC99" t="inlineStr">
@@ -23044,7 +23044,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>26984603.0</t>
+          <t>411249534.0</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr">
@@ -23271,7 +23271,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>127379343.0</t>
+          <t>227426857.0</t>
         </is>
       </c>
       <c r="AC101" t="inlineStr">
@@ -23498,7 +23498,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>697975.0</t>
+          <t>737294.0</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>22628.0</t>
+          <t>910902.0</t>
         </is>
       </c>
       <c r="AC103" t="inlineStr">
@@ -23952,7 +23952,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>3573571413.0</t>
+          <t>8814991405.0</t>
         </is>
       </c>
       <c r="AC104" t="inlineStr">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>-351610.0</t>
+          <t>-362835.0</t>
         </is>
       </c>
       <c r="AC105" t="inlineStr">
@@ -24406,7 +24406,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>-544714063.0</t>
+          <t>-198122282.0</t>
         </is>
       </c>
       <c r="AC106" t="inlineStr">
@@ -24633,7 +24633,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>1076375.0</t>
+          <t>1040357.0</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr">
@@ -24860,7 +24860,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>94686628.0</t>
+          <t>125482705.0</t>
         </is>
       </c>
       <c r="AC108" t="inlineStr">
@@ -25087,7 +25087,7 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>911661204.0</t>
+          <t>-1587631692.0</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr">
@@ -25314,7 +25314,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>-159378.0</t>
+          <t>-146957.0</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
@@ -25541,7 +25541,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>331948.0</t>
+          <t>528836.0</t>
         </is>
       </c>
       <c r="AC111" t="inlineStr">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>145802666.0</t>
+          <t>179304132.0</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr">
@@ -25995,7 +25995,7 @@
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>-2141777.0</t>
+          <t>1830431.0</t>
         </is>
       </c>
       <c r="AC113" t="inlineStr">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>1562390261.0</t>
+          <t>953015752.0</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
@@ -26449,7 +26449,7 @@
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>32724.0</t>
+          <t>72738.0</t>
         </is>
       </c>
       <c r="AC115" t="inlineStr">
@@ -26676,7 +26676,7 @@
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>1102578.0</t>
+          <t>2802787.0</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr">
@@ -26903,7 +26903,7 @@
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>-6209526334.0</t>
+          <t>-19634969598.0</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr">
@@ -27130,7 +27130,7 @@
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>66622153.0</t>
+          <t>98737009.0</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr">
@@ -27297,27 +27297,27 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>-11.42</t>
+          <t>-11.22</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>-14.34</t>
+          <t>-14.21</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
@@ -27584,7 +27584,7 @@
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>141371565.0</t>
+          <t>192325535.0</t>
         </is>
       </c>
       <c r="AC120" t="inlineStr">
@@ -27811,7 +27811,7 @@
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>-304103.0</t>
+          <t>213710.0</t>
         </is>
       </c>
       <c r="AC121" t="inlineStr">
@@ -28038,7 +28038,7 @@
       </c>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>617959999.0</t>
+          <t>1192911611.0</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr">
@@ -28265,7 +28265,7 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>160571213.0</t>
+          <t>319795245.0</t>
         </is>
       </c>
       <c r="AC123" t="inlineStr">
@@ -28492,7 +28492,7 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>9843906.0</t>
+          <t>21547884.0</t>
         </is>
       </c>
       <c r="AC124" t="inlineStr">
@@ -28719,7 +28719,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>733861.0</t>
+          <t>768653.0</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
@@ -28946,7 +28946,7 @@
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>6305063.0</t>
+          <t>13223524.0</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
@@ -29173,7 +29173,7 @@
       </c>
       <c r="AB127" t="inlineStr">
         <is>
-          <t>954256.0</t>
+          <t>-279091.0</t>
         </is>
       </c>
       <c r="AC127" t="inlineStr">
@@ -29400,7 +29400,7 @@
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>83413058.0</t>
+          <t>189367332.0</t>
         </is>
       </c>
       <c r="AC128" t="inlineStr">
@@ -29627,7 +29627,7 @@
       </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>245318093.0</t>
+          <t>945817840.0</t>
         </is>
       </c>
       <c r="AC129" t="inlineStr">
@@ -29854,7 +29854,7 @@
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>15638865.0</t>
+          <t>15652687.0</t>
         </is>
       </c>
       <c r="AC130" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>3329241301.0</t>
+          <t>4150913140.0</t>
         </is>
       </c>
       <c r="AC131" t="inlineStr">
@@ -30308,7 +30308,7 @@
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>43406028.0</t>
+          <t>58888298.0</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr">
@@ -30535,7 +30535,7 @@
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>-81260506.0</t>
+          <t>65243251.0</t>
         </is>
       </c>
       <c r="AC133" t="inlineStr">
@@ -30762,7 +30762,7 @@
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>991042825.0</t>
+          <t>1094066847.0</t>
         </is>
       </c>
       <c r="AC134" t="inlineStr">
@@ -30989,7 +30989,7 @@
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>1706336269.0</t>
+          <t>-6193148050.0</t>
         </is>
       </c>
       <c r="AC135" t="inlineStr">
@@ -31216,7 +31216,7 @@
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>-1655004883.0</t>
+          <t>-1244882824.0</t>
         </is>
       </c>
       <c r="AC136" t="inlineStr">
@@ -31443,7 +31443,7 @@
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>-45961381.0</t>
+          <t>35327493.0</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr">
@@ -31670,7 +31670,7 @@
       </c>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>130578811.0</t>
+          <t>180000086.0</t>
         </is>
       </c>
       <c r="AC138" t="inlineStr">
@@ -31897,7 +31897,7 @@
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>32647.0</t>
+          <t>54655.0</t>
         </is>
       </c>
       <c r="AC139" t="inlineStr">
@@ -32024,7 +32024,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -32034,7 +32034,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -32049,37 +32049,37 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>-1.37</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>-1.37</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>73275868.0</t>
+          <t>137552959.0</t>
         </is>
       </c>
       <c r="AC141" t="inlineStr">
@@ -32578,7 +32578,7 @@
       </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>200434208.0</t>
+          <t>360038193.0</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr">
@@ -32805,7 +32805,7 @@
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>184549527.0</t>
+          <t>193509657.0</t>
         </is>
       </c>
       <c r="AC143" t="inlineStr">
@@ -33032,7 +33032,7 @@
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>-69222205.0</t>
+          <t>-283842907.0</t>
         </is>
       </c>
       <c r="AC144" t="inlineStr">
@@ -33259,7 +33259,7 @@
       </c>
       <c r="AB145" t="inlineStr">
         <is>
-          <t>165320269.0</t>
+          <t>152951833.0</t>
         </is>
       </c>
       <c r="AC145" t="inlineStr">
@@ -33486,7 +33486,7 @@
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>1391643117.0</t>
+          <t>3670332647.0</t>
         </is>
       </c>
       <c r="AC146" t="inlineStr">
@@ -33713,7 +33713,7 @@
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>3067583554.0</t>
+          <t>3195293580.0</t>
         </is>
       </c>
       <c r="AC147" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>795029422.0</t>
+          <t>5736317045.0</t>
         </is>
       </c>
       <c r="AC148" t="inlineStr">
@@ -34167,7 +34167,7 @@
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>296469076.0</t>
+          <t>457442563.0</t>
         </is>
       </c>
       <c r="AC149" t="inlineStr">
@@ -34394,7 +34394,7 @@
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>1036639220.0</t>
+          <t>847597406.0</t>
         </is>
       </c>
       <c r="AC150" t="inlineStr">
@@ -34621,7 +34621,7 @@
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>313557517.0</t>
+          <t>677119361.0</t>
         </is>
       </c>
       <c r="AC151" t="inlineStr">
@@ -34808,7 +34808,7 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>-3.50</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
@@ -34848,7 +34848,7 @@
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>27282046.0</t>
+          <t>25301049.0</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>150503690.0</t>
+          <t>511467517.0</t>
         </is>
       </c>
       <c r="AC153" t="inlineStr">
@@ -35302,7 +35302,7 @@
       </c>
       <c r="AB154" t="inlineStr">
         <is>
-          <t>105831777.0</t>
+          <t>109217642.0</t>
         </is>
       </c>
       <c r="AC154" t="inlineStr">
@@ -35529,7 +35529,7 @@
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>26984044.0</t>
+          <t>-5947172.0</t>
         </is>
       </c>
       <c r="AC155" t="inlineStr">
@@ -35756,7 +35756,7 @@
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>100398728.0</t>
+          <t>-29242838.0</t>
         </is>
       </c>
       <c r="AC156" t="inlineStr">
@@ -35983,7 +35983,7 @@
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>453213054.0</t>
+          <t>176495173.0</t>
         </is>
       </c>
       <c r="AC157" t="inlineStr">
@@ -36210,7 +36210,7 @@
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>-4193293.0</t>
+          <t>93616787.0</t>
         </is>
       </c>
       <c r="AC158" t="inlineStr">
@@ -36437,7 +36437,7 @@
       </c>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>773855811.0</t>
+          <t>1469136880.0</t>
         </is>
       </c>
       <c r="AC159" t="inlineStr">
@@ -36664,7 +36664,7 @@
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>2254424633.0</t>
+          <t>2773644845.0</t>
         </is>
       </c>
       <c r="AC160" t="inlineStr">
@@ -36891,7 +36891,7 @@
       </c>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>965134801.0</t>
+          <t>1412795863.0</t>
         </is>
       </c>
       <c r="AC161" t="inlineStr">
@@ -37118,7 +37118,7 @@
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>661399840.0</t>
+          <t>797765053.0</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr">
@@ -37345,7 +37345,7 @@
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>113691578.0</t>
+          <t>295555602.0</t>
         </is>
       </c>
       <c r="AC163" t="inlineStr">
@@ -37572,7 +37572,7 @@
       </c>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>2365656102.0</t>
+          <t>1205913414.0</t>
         </is>
       </c>
       <c r="AC164" t="inlineStr">
@@ -37799,7 +37799,7 @@
       </c>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>1220591.0</t>
+          <t>1718235.0</t>
         </is>
       </c>
       <c r="AC165" t="inlineStr">
@@ -38026,7 +38026,7 @@
       </c>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>25593286.0</t>
+          <t>41261606.0</t>
         </is>
       </c>
       <c r="AC166" t="inlineStr">
@@ -38253,7 +38253,7 @@
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>-35237843.0</t>
+          <t>180474165.0</t>
         </is>
       </c>
       <c r="AC167" t="inlineStr">
@@ -38480,7 +38480,7 @@
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>-27971333.0</t>
+          <t>-101385877.0</t>
         </is>
       </c>
       <c r="AC168" t="inlineStr">
@@ -38707,7 +38707,7 @@
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>-852126767.0</t>
+          <t>-871818543.0</t>
         </is>
       </c>
       <c r="AC169" t="inlineStr">
@@ -38934,7 +38934,7 @@
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>62308998.0</t>
+          <t>75847763.0</t>
         </is>
       </c>
       <c r="AC170" t="inlineStr">
@@ -39161,7 +39161,7 @@
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>890104726.0</t>
+          <t>1346846705.0</t>
         </is>
       </c>
       <c r="AC171" t="inlineStr">
@@ -39388,7 +39388,7 @@
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>29413754.0</t>
+          <t>51662073.0</t>
         </is>
       </c>
       <c r="AC172" t="inlineStr">
@@ -39615,7 +39615,7 @@
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>6813119.0</t>
+          <t>-1370911.0</t>
         </is>
       </c>
       <c r="AC173" t="inlineStr">
@@ -39842,7 +39842,7 @@
       </c>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>26104905.0</t>
+          <t>60271306.0</t>
         </is>
       </c>
       <c r="AC174" t="inlineStr">
@@ -40069,7 +40069,7 @@
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>1872865312.0</t>
+          <t>-2116638246.0</t>
         </is>
       </c>
       <c r="AC175" t="inlineStr">
@@ -40296,7 +40296,7 @@
       </c>
       <c r="AB176" t="inlineStr">
         <is>
-          <t>305812972.0</t>
+          <t>427081091.0</t>
         </is>
       </c>
       <c r="AC176" t="inlineStr">
